--- a/NformTester/NformTester/Keywordscripts/600.60.20.80_InputFormatforDailyPollingTime.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.80_InputFormatforDailyPollingTime.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1273,12 +1273,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CI$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CI:$CI</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8141" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8141" uniqueCount="914">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3932,158 +3932,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ChangeData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_ResetData$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>SendCommandToSimulator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is verify the input format for Daily polling time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Input 4 and 23 to the hour part;Input -1,24 and 25 to the hour part;Input 1.5 to the hour part;Input 4 and 59 to the minute part;Input -1 and 60 to the minute part;Input 1.5 to the minute part.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12:12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4{RIGHT}4{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"04:04"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"23{RIGHT}59{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"23:59"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-1{RIGHT}-1{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24{RIGHT}60{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"04:00"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"25{RIGHT}60{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"05:00"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;1. A user should have sufficient right to configure device and device global parameters.2. Devices should be added in Nform.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.5{RIGHT}1.5{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"23:01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"01:05"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ChangeData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ChangeData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ResetData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_ResetData$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>SendCommandToSimulator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is verify the input format for Daily polling time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Input 4 and 23 to the hour part;Input -1,24 and 25 to the hour part;Input 1.5 to the hour part;Input 4 and 59 to the minute part;Input -1 and 60 to the minute part;Input 1.5 to the minute part.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12:12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4{RIGHT}4{LEFT}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"04:04"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"23{RIGHT}59{LEFT}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"23:59"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"-1{RIGHT}-1{LEFT}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24{RIGHT}60{LEFT}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"04:00"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"25{RIGHT}60{LEFT}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"05:00"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;1. A user should have sufficient right to configure device and device global parameters.2. Devices should be added in Nform.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.5{RIGHT}1.5{LEFT}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"23:01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"01:05"</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4256,7 +4251,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4267,8 +4262,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4309,11 +4307,13 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4332,86 +4332,18 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4690,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4708,10 +4640,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>840</v>
@@ -4752,10 +4684,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4776,10 +4708,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4810,10 +4742,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4840,7 +4772,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B5" s="8">
         <v>41732</v>
@@ -4849,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4864,7 +4796,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B6" s="8">
         <v>41849</v>
@@ -4873,7 +4805,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4909,11 +4841,11 @@
       <c r="H7" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>875</v>
+      <c r="I7" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>910</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>835</v>
@@ -4928,7 +4860,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4947,11 +4879,11 @@
       <c r="H8" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>876</v>
+      <c r="I8" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>912</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>835</v>
@@ -4966,7 +4898,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5094,7 +5026,7 @@
         <v>853</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
@@ -5199,7 +5131,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -5322,7 +5254,7 @@
         <v>853</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J21" s="4" t="b">
         <v>1</v>
@@ -5353,13 +5285,13 @@
         <v>7</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -5383,7 +5315,7 @@
         <v>854</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -5505,13 +5437,13 @@
         <v>7</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -5535,7 +5467,7 @@
         <v>854</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5657,13 +5589,13 @@
         <v>7</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -5687,7 +5619,7 @@
         <v>854</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -5809,13 +5741,13 @@
         <v>7</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5839,7 +5771,7 @@
         <v>854</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5961,13 +5893,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -5991,7 +5923,7 @@
         <v>854</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -6113,13 +6045,13 @@
         <v>7</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6143,7 +6075,7 @@
         <v>854</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -6265,13 +6197,13 @@
         <v>7</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -6384,8 +6316,8 @@
       <c r="G63" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>875</v>
+      <c r="H63" s="18" t="s">
+        <v>910</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6543,13 +6475,13 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="9" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="I70" s="9">
         <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6671,7 +6603,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>2</v>
@@ -6793,13 +6725,13 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="9" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="I81" s="9">
         <v>1</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6881,13 +6813,13 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="9" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="I85" s="9">
         <v>1</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -7049,7 +6981,7 @@
         <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>2</v>
@@ -7166,18 +7098,18 @@
         <v>858</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="9" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="I98" s="9">
         <v>1</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -7328,8 +7260,8 @@
       <c r="G105" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>875</v>
+      <c r="H105" s="18" t="s">
+        <v>910</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7606,7 +7538,7 @@
         <v>853</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J117" s="4" t="b">
         <v>1</v>
